--- a/Calculation encoder PPR.xlsx
+++ b/Calculation encoder PPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingdiaw\Documents\PC Office JKEPTSS\Project-Robotic 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274079E7-6162-4F62-8D00-3198CE1BDE91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88172F97-AAEC-4F53-9F8D-08353486A497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{368D5F5B-71B2-474E-A1C1-88D8FE4B971F}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
